--- a/resources/tools/wordlist_E-J/lessons/lesson-22.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-22.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,564 +436,564 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to make a plan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>計画を立てる|けいかくをたてる</t>
+          <t>相手|あいて</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to raise; to bring up</t>
+          <t>reception desk</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>育てる|そだてる</t>
+          <t>受付|うけつけ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to help; to rescue</t>
+          <t>English conversation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>助ける|たすける</t>
+          <t>英会話|えいかいわ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to lose (a match)</t>
+          <t>(someone's) daughter (polite)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>負ける|まける</t>
+          <t>お嬢さん|おじょうさん</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to pray for help</t>
+          <t>household matters</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>お願いする|おねがいする</t>
+          <t>家事|かじ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to agree</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>賛成する|さんせいする</t>
+          <t>風|かぜ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to fail; to be unsuccessful</t>
+          <t>God</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>失敗する|しっぱいする</t>
+          <t>神様|かみさま</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to stay up all night</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>徹夜する|てつやする</t>
+          <t>木|き</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to oppose; to object to</t>
+          <t>junior member of a group</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>反対する|はんたいする</t>
+          <t>後輩|こうはい</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to translate</t>
+          <t>monkey</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>翻訳する|ほんやくする</t>
+          <t>猿|さる</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cram school</t>
+          <t>freedom</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>塾|じゅく</t>
+          <t>自由|じゆう</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>document</t>
+          <t>cram school</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>書類|しょるい</t>
+          <t>塾|じゅく</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>senior member of a group</t>
+          <t>document</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>先輩|せんぱい</t>
+          <t>書類|しょるい</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>living alone</t>
+          <t>senior member of a group</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>一人暮らし|ひとりぐらし</t>
+          <t>先輩|せんぱい</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>subordinate</t>
+          <t>living alone</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>部下|ぶか</t>
+          <t>一人暮らし|ひとりぐらし</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>review of a lesson</t>
+          <t>subordinate</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>復習|ふくしゅう</t>
+          <t>部下|ぶか</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>review of a lesson</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>プロジェクト</t>
+          <t>復習|ふくしゅう</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ball</t>
+          <t>project</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ボール</t>
+          <t>プロジェクト</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>waste (money)</t>
+          <t>ball</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>無駄遣い|むだづかい</t>
+          <t>ボール</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>waste (money)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>免許|めんきょ</t>
+          <t>無駄遣い|むだづかい</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>license</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ヨーロッパ</t>
+          <t>免許|めんきょ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>preparation of lessons</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>予習|よしゅう</t>
+          <t>ヨーロッパ</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>preparation of lessons</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>相手|あいて</t>
+          <t>予習|よしゅう</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>reception desk</t>
+          <t>noisy; annoying</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>受付|うけつけ</t>
+          <t>うるさい</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English conversation</t>
+          <t>worried about</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>英会話|えいかいわ</t>
+          <t>心配|しんぱい（な）</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>(someone's) daughter (polite)</t>
+          <t>poor</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>お嬢さん|おじょうさん</t>
+          <t>貧乏|びんぼう（な）</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>household matters</t>
+          <t>fluent</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>家事|かじ</t>
+          <t>ぺらぺら（な）</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>strange; unusual</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>風|かぜ</t>
+          <t>変|へん（な）</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>God</t>
+          <t>easy; comfortable</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>神様|かみさま</t>
+          <t>楽|らく（な）</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>the wind blows</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>木|き</t>
+          <t>風が吹く|かぜがふく</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>junior member of a group</t>
+          <t>to win</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>後輩|こうはい</t>
+          <t>勝つ|かつ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>monkey</t>
+          <t>to make a photocopy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>猿|さる</t>
+          <t>コピーを取る|コピーをとる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>to carry</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>自由|じゆう</t>
+          <t>運ぶ|はこぶ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>noisy; annoying</t>
+          <t>to run</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>うるさい</t>
+          <t>走る|はしる</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>worried about</t>
+          <t>to pick up (something)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>心配|しんぱい（な）</t>
+          <t>拾う|ひろう</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>poor</t>
+          <t>to leave (someone/something) alone; to neglect</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>貧乏|びんぼう（な）</t>
+          <t>放っておく|ほうっておく</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>fluent</t>
+          <t>to be in time</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ぺらぺら（な）</t>
+          <t>間に合う|まにあう</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>strange; unusual</t>
+          <t>to make a plan</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>変|へん（な）</t>
+          <t>計画を立てる|けいかくをたてる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>easy; comfortable</t>
+          <t>to raise; to bring up</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>楽|らく（な）</t>
+          <t>育てる|そだてる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>the wind blows</t>
+          <t>to help; to rescue</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>風が吹く|かぜがふく</t>
+          <t>助ける|たすける</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>to win</t>
+          <t>to lose (a match)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>勝つ|かつ</t>
+          <t>負ける|まける</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>to make a photocopy</t>
+          <t>to pray for help</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>コピーを取る|コピーをとる</t>
+          <t>お願いする|おねがいする</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>to carry</t>
+          <t>to agree</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>運ぶ|はこぶ</t>
+          <t>賛成する|さんせいする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>to run</t>
+          <t>to fail; to be unsuccessful</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>走る|はしる</t>
+          <t>失敗する|しっぱいする</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to pick up (something)</t>
+          <t>to stay up all night</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>拾う|ひろう</t>
+          <t>徹夜する|てつやする</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>to leave (someone/something) alone; to neglect</t>
+          <t>to oppose; to object to</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>放っておく|ほうっておく</t>
+          <t>反対する|はんたいする</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>to be in time</t>
+          <t>to translate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>間に合う|まにあう</t>
+          <t>翻訳する|ほんやくする</t>
         </is>
       </c>
     </row>
@@ -1028,784 +1096,784 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>absence; not at home</t>
+          <t>diary</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>留守|るす</t>
+          <t>日記|にっき</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>answering machine</t>
+          <t>to fill in</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>留守番電話|るすばんでんわ</t>
+          <t>記入する|きにゅうする</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>charm</t>
+          <t>an article; news</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>お守り|おまもり</t>
+          <t>記事|きじ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>to memorize</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>守衛|しゅえい</t>
+          <t>暗記する|あんきする</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>weekend</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>週末|しゅうまつ</t>
+          <t>銀行|ぎんこう</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>end of the month</t>
+          <t>silver medal</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>月末|げつまつ</t>
+          <t>銀メダル|ぎんメダル</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>year-end</t>
+          <t>land covered with snow</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>年末|ねんまつ</t>
+          <t>銀世界|ぎんせかい</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>final examination</t>
+          <t>one time</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>期末試験|きまつしけん</t>
+          <t>一回|いっかい</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>the end</t>
+          <t>out-of-service bus</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>末|すえ</t>
+          <t>回送バス|かいそうバス</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>to wait</t>
+          <t>last inning; last episode</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>待つ|まつ</t>
+          <t>最終回|さいしゅうかい</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>waiting room</t>
+          <t>to turn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>待合室|まちあいしつ</t>
+          <t>回す|まわす</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>to expect</t>
+          <t>evening</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>期待する|きたいする</t>
+          <t>夕方|ゆうがた</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>invitation</t>
+          <t>dinner</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>招待|しょうたい</t>
+          <t>夕食|ゆうしょく</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>to explain</t>
+          <t>Tanabata</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>説明する|せつめいする</t>
+          <t>七夕|たなばた</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>novel</t>
+          <t>setting sun</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>小説|しょうせつ</t>
+          <t>夕日|ゆうひ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>novelist</t>
+          <t>evening newspaper</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>小説家|しょうせつか</t>
+          <t>夕刊|ゆうかん</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>to preach</t>
+          <t>Mr./Ms. Kuroki</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>説教する|せっきょうする</t>
+          <t>黒木さん|くろきさん</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>to guide</t>
+          <t>black</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>案内する|あんないする</t>
+          <t>黒い|くろい</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>information desk</t>
+          <t>black and white photograph</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>案内所|あんないじょ</t>
+          <t>白黒写真|しろくろしゃしん</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>idea; proposal</t>
+          <t>blackboard</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>案|あん</t>
+          <t>黒板|こくばん</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>proposal</t>
+          <t>a thing to take care of</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>提案|ていあん</t>
+          <t>用事|ようじ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>my wife</t>
+          <t>to prepare</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>家内|かない</t>
+          <t>用意する|よういする</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>domestic</t>
+          <t>for children</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>国内|こくない</t>
+          <t>子供用|こどもよう</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>internal medicine</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>内科|ないか</t>
+          <t>費用|ひよう</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>absence; not at home</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>内側|うちがわ</t>
+          <t>留守|るす</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>to forget</t>
+          <t>answering machine</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>忘れる|わすれる</t>
+          <t>留守番電話|るすばんでんわ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lost article</t>
+          <t>charm</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>忘れ物|わすれもの</t>
+          <t>お守り|おまもり</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>year-end party</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>忘年会|ぼうねんかい</t>
+          <t>守衛|しゅえい</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>diary</t>
+          <t>weekend</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>日記|にっき</t>
+          <t>週末|しゅうまつ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>to fill in</t>
+          <t>end of the month</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>記入する|きにゅうする</t>
+          <t>月末|げつまつ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>an article; news</t>
+          <t>year-end</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>記事|きじ</t>
+          <t>年末|ねんまつ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>to memorize</t>
+          <t>final examination</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>暗記する|あんきする</t>
+          <t>期末試験|きまつしけん</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>the end</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>銀行|ぎんこう</t>
+          <t>末|すえ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>silver medal</t>
+          <t>to wait</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>銀メダル|ぎんメダル</t>
+          <t>待つ|まつ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>land covered with snow</t>
+          <t>waiting room</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>銀世界|ぎんせかい</t>
+          <t>待合室|まちあいしつ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>one time</t>
+          <t>to expect</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>一回|いっかい</t>
+          <t>期待する|きたいする</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>out-of-service bus</t>
+          <t>invitation</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>回送バス|かいそうバス</t>
+          <t>招待|しょうたい</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>last inning; last episode</t>
+          <t>over-time work</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>最終回|さいしゅうかい</t>
+          <t>残業|ざんぎょう</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>to turn</t>
+          <t>to leave</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>回す|まわす</t>
+          <t>残す|のこす</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>over-time work</t>
+          <t>regrettable</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>残業|ざんぎょう</t>
+          <t>残念|ざんねん</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>to leave</t>
+          <t>regret</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>残す|のこす</t>
+          <t>心残り|こころのこり</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>regrettable</t>
+          <t>account balance</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>残念|ざんねん</t>
+          <t>残高|ざんだか</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>regret</t>
+          <t>answering machine</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>心残り|こころのこり</t>
+          <t>留守番電話|るすばんでんわ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>account balance</t>
+          <t>the first</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>残高|ざんだか</t>
+          <t>一番|いちばん</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>answering machine</t>
+          <t>number</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>留守番電話|るすばんでんわ</t>
+          <t>番号|ばんごう</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>the first</t>
+          <t>TV program</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>一番|いちばん</t>
+          <t>番組|ばんぐみ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>station</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>番号|ばんごう</t>
+          <t>駅|えき</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TV program</t>
+          <t>Tokyo Station</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>番組|ばんぐみ</t>
+          <t>東京駅|とうきょうえき</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>station attendant</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>駅|えき</t>
+          <t>駅員|えきいん</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tokyo Station</t>
+          <t>vicinity; in front of the station</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>東京駅|とうきょうえき</t>
+          <t>駅前|えきまえ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>station attendant</t>
+          <t>to explain</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>駅員|えきいん</t>
+          <t>説明する|せつめいする</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>vicinity; in front of the station</t>
+          <t>novel</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>駅前|えきまえ</t>
+          <t>小説|しょうせつ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>evening</t>
+          <t>novelist</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>夕方|ゆうがた</t>
+          <t>小説家|しょうせつか</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>dinner</t>
+          <t>to preach</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>夕食|ゆうしょく</t>
+          <t>説教する|せっきょうする</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Tanabata</t>
+          <t>to guide</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>七夕|たなばた</t>
+          <t>案内する|あんないする</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>setting sun</t>
+          <t>information desk</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>夕日|ゆうひ</t>
+          <t>案内所|あんないじょ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>evening newspaper</t>
+          <t>idea; proposal</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>夕刊|ゆうかん</t>
+          <t>案|あん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mr./Ms. Kuroki</t>
+          <t>proposal</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>黒木さん|くろきさん</t>
+          <t>提案|ていあん</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>my wife</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>黒い|くろい</t>
+          <t>家内|かない</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>black and white photograph</t>
+          <t>domestic</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>白黒写真|しろくろしゃしん</t>
+          <t>国内|こくない</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>blackboard</t>
+          <t>internal medicine</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>黒板|こくばん</t>
+          <t>内科|ないか</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>a thing to take care of</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>用事|ようじ</t>
+          <t>内側|うちがわ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>to prepare</t>
+          <t>to forget</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>用意する|よういする</t>
+          <t>忘れる|わすれる</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>for children</t>
+          <t>lost article</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>子供用|こどもよう</t>
+          <t>忘れ物|わすれもの</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>year-end party</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>費用|ひよう</t>
+          <t>忘年会|ぼうねんかい</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-22.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-22.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1874,6 +1874,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>